--- a/RegulatoryOverlays/TableSummary.xlsx
+++ b/RegulatoryOverlays/TableSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\WaDE-Side-Projects\RegulatoryOverlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693887E-90AC-453A-BC35-5225475988BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE352E68-D715-4FB0-BA96-414334D64010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
   </bookViews>
   <sheets>
     <sheet name="InWaDE" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="82">
   <si>
     <t>State</t>
   </si>
@@ -256,6 +256,33 @@
   </si>
   <si>
     <t>Groundwater Conservation Districts</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Sustainable Groundwater Management Act Basin</t>
+  </si>
+  <si>
+    <t>Groundwater Management Districts</t>
+  </si>
+  <si>
+    <t>Natural Resources Districts</t>
+  </si>
+  <si>
+    <t>Special Provision Watersheds</t>
+  </si>
+  <si>
+    <t>Regulatory Type</t>
   </si>
 </sst>
 </file>
@@ -607,47 +634,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A01D4-43DC-4552-9F1C-140CADB500FF}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="1.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -666,260 +709,541 @@
       <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3">
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4">
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7">
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8">
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13">
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17">
         <v>62</v>
       </c>
     </row>
@@ -933,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF85D-2215-4895-A268-501C6E034D37}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/RegulatoryOverlays/TableSummary.xlsx
+++ b/RegulatoryOverlays/TableSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\WaDE-Side-Projects\RegulatoryOverlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE352E68-D715-4FB0-BA96-414334D64010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66156828-9C4B-4878-A524-12B8113F8D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
   </bookViews>
@@ -637,7 +637,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,11 +703,11 @@
       <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>47</v>

--- a/RegulatoryOverlays/TableSummary.xlsx
+++ b/RegulatoryOverlays/TableSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\WaDE-Side-Projects\RegulatoryOverlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66156828-9C4B-4878-A524-12B8113F8D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5389B-D26C-4F11-8F89-041B7A6CDAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
   </bookViews>
   <sheets>
     <sheet name="InWaDE" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="81">
   <si>
     <t>State</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Special Management Area</t>
   </si>
   <si>
-    <t>WaterSourcetype</t>
-  </si>
-  <si>
     <t>WaDE Mapping Status</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Closure Areas</t>
   </si>
   <si>
-    <t>Surface and Groundwate</t>
-  </si>
-  <si>
     <t>Critical Management Areas</t>
   </si>
   <si>
@@ -120,18 +114,9 @@
     <t>Special Conditons</t>
   </si>
   <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
     <t>Water Resource District</t>
   </si>
   <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>Administration Basins</t>
-  </si>
-  <si>
     <t>Texas</t>
   </si>
   <si>
@@ -283,6 +268,18 @@
   </si>
   <si>
     <t>Regulatory Type</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Administrative Basins</t>
+  </si>
+  <si>
+    <t>Surface and Ground Water</t>
   </si>
 </sst>
 </file>
@@ -634,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A01D4-43DC-4552-9F1C-140CADB500FF}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="A1:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,69 +654,69 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -727,31 +724,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -762,31 +759,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>505</v>
@@ -797,31 +794,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>13</v>
@@ -832,31 +829,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -867,31 +864,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -902,31 +899,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -937,34 +934,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -972,34 +969,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1007,34 +1004,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1042,34 +1039,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>123</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1077,34 +1074,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1112,34 +1109,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1147,34 +1144,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1182,72 +1179,145 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>846</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
         <v>62</v>
       </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K18">
+    <sortCondition ref="C3:C18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1255,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF85D-2215-4895-A268-501C6E034D37}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="A1:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,79 +1341,79 @@
     <col min="6" max="6" width="5.44140625" customWidth="1"/>
     <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.109375" customWidth="1"/>
     <col min="10" max="10" width="5.44140625" customWidth="1"/>
     <col min="11" max="11" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1351,34 +1421,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1386,34 +1456,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
         <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1421,34 +1491,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1456,34 +1526,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -1491,34 +1561,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1526,34 +1596,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1561,34 +1631,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1596,34 +1666,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1631,34 +1701,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1666,34 +1736,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1701,34 +1771,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1736,34 +1806,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1771,34 +1841,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1806,320 +1876,250 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" t="s">
         <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
         <v>35</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K24">
-    <sortCondition ref="K3:K24"/>
-    <sortCondition ref="C3:C24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K22">
+    <sortCondition ref="K3:K22"/>
+    <sortCondition ref="C3:C22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RegulatoryOverlays/TableSummary.xlsx
+++ b/RegulatoryOverlays/TableSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\WaDE-Side-Projects\RegulatoryOverlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB5389B-D26C-4F11-8F89-041B7A6CDAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E401A-6E4B-477F-B2D4-4D48F6A0AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="81">
   <si>
     <t>State</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Texas</t>
   </si>
   <si>
-    <t>Utah</t>
-  </si>
-  <si>
     <t>Great Salt Lake Basin</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>Surface and Ground Water</t>
+  </si>
+  <si>
+    <t>UT</t>
   </si>
 </sst>
 </file>
@@ -631,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A01D4-43DC-4552-9F1C-140CADB500FF}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="A1:K19"/>
+      <selection activeCell="K20" sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,69 +654,69 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -724,31 +724,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -759,31 +759,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>505</v>
@@ -794,31 +794,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>13</v>
@@ -829,31 +829,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -864,31 +864,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -899,31 +899,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>63</v>
-      </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -934,31 +934,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>63</v>
@@ -969,31 +969,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>23</v>
@@ -1004,31 +1004,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>53</v>
-      </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -1039,31 +1039,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -1074,31 +1074,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
         <v>123</v>
@@ -1109,31 +1109,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
         <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -1144,31 +1144,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" t="s">
         <v>79</v>
       </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" t="s">
-        <v>80</v>
-      </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
         <v>18</v>
@@ -1179,31 +1179,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
         <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>7</v>
@@ -1214,31 +1214,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>100</v>
@@ -1249,34 +1249,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1284,39 +1284,74 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
         <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K18">
-    <sortCondition ref="C3:C18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K20">
+    <sortCondition ref="C3:C20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1325,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF85D-2215-4895-A268-501C6E034D37}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="A1:K22"/>
+      <selection activeCell="K21" sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,34 +1383,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -1383,37 +1418,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
       <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
       <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1421,31 +1456,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
@@ -1456,31 +1491,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -1491,31 +1526,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
@@ -1526,31 +1561,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
@@ -1561,31 +1596,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
@@ -1596,31 +1631,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
@@ -1631,31 +1666,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
         <v>8</v>
@@ -1666,31 +1701,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
@@ -1701,31 +1736,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
         <v>8</v>
@@ -1736,31 +1771,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
         <v>8</v>
@@ -1771,31 +1806,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
         <v>8</v>
@@ -1806,31 +1841,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
         <v>8</v>
@@ -1841,31 +1876,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
         <v>8</v>
@@ -1876,31 +1911,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
         <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
         <v>8</v>
@@ -1911,34 +1946,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1946,34 +1981,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1981,34 +2016,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2016,34 +2051,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -2051,75 +2086,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K22">
-    <sortCondition ref="K3:K22"/>
-    <sortCondition ref="C3:C22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K21">
+    <sortCondition ref="K3:K21"/>
+    <sortCondition ref="C3:C21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RegulatoryOverlays/TableSummary.xlsx
+++ b/RegulatoryOverlays/TableSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\WaDE-Side-Projects\RegulatoryOverlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E401A-6E4B-477F-B2D4-4D48F6A0AEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D3FD35-61A3-4044-8064-83100159B323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
   </bookViews>
   <sheets>
     <sheet name="InWaDE" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="80">
   <si>
     <t>State</t>
   </si>
@@ -123,12 +123,6 @@
     <t>Great Salt Lake Basin</t>
   </si>
   <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Groundwater Control Areas and Advisory Boards</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>AZ</t>
   </si>
   <si>
-    <t>Active Management Area</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
@@ -280,6 +271,12 @@
   </si>
   <si>
     <t>UT</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Active Management Areas</t>
   </si>
 </sst>
 </file>
@@ -631,19 +628,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A01D4-43DC-4552-9F1C-140CADB500FF}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="A1:K20"/>
+      <selection activeCell="K22" sqref="A1:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="1.88671875" customWidth="1"/>
@@ -654,69 +651,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -724,34 +724,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -759,34 +759,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>505</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -794,34 +794,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -829,34 +829,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -864,34 +864,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -899,34 +899,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -934,34 +934,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -969,34 +969,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1004,34 +1004,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1039,34 +1039,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12">
         <v>7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12">
-        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1074,34 +1074,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>123</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1109,34 +1109,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1144,34 +1144,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1179,34 +1179,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1214,34 +1214,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1249,34 +1249,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1284,34 +1284,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
         <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>846</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1319,34 +1319,98 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K20">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
         <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1360,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF85D-2215-4895-A268-501C6E034D37}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="A1:K21"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,34 +1447,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -1418,37 +1482,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1456,31 +1520,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
@@ -1491,31 +1555,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -1526,31 +1590,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
@@ -1561,31 +1625,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
@@ -1596,31 +1660,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
@@ -1631,31 +1695,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
@@ -1666,31 +1730,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
         <v>8</v>
@@ -1701,31 +1765,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
@@ -1736,31 +1800,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
         <v>8</v>
@@ -1771,31 +1835,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s">
         <v>8</v>
@@ -1806,31 +1870,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s">
         <v>8</v>
@@ -1841,31 +1905,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
         <v>8</v>
@@ -1876,31 +1940,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s">
         <v>8</v>
@@ -1911,34 +1975,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1946,34 +2010,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" t="s">
         <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1981,34 +2045,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2016,34 +2080,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -2051,75 +2115,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K21">
-    <sortCondition ref="K3:K21"/>
-    <sortCondition ref="C3:C21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K20">
+    <sortCondition ref="K3:K20"/>
+    <sortCondition ref="C3:C20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RegulatoryOverlays/TableSummary.xlsx
+++ b/RegulatoryOverlays/TableSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\WaDE-Side-Projects\RegulatoryOverlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D3FD35-61A3-4044-8064-83100159B323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B79F6D9-7AA7-4B9E-B579-159092177A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
   </bookViews>
   <sheets>
     <sheet name="InWaDE" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="79">
   <si>
     <t>State</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Surface and Groundwater</t>
-  </si>
-  <si>
-    <t>Idaho</t>
   </si>
   <si>
     <t>Groundwater Districts</t>
@@ -628,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A01D4-43DC-4552-9F1C-140CADB500FF}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="A1:K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,72 +648,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
         <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
       <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -724,31 +721,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -759,31 +756,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -794,31 +791,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <v>505</v>
@@ -829,31 +826,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>13</v>
@@ -864,34 +861,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -899,34 +896,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -934,34 +931,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -969,34 +966,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1004,34 +1001,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1039,34 +1036,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1074,34 +1071,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1109,34 +1106,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>123</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1144,34 +1141,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15">
         <v>7</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1179,34 +1176,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1214,34 +1211,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>7</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1249,34 +1246,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1284,34 +1281,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1319,97 +1316,208 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>846</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
         <v>12</v>
       </c>
-      <c r="J22" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22">
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25">
         <v>34</v>
       </c>
     </row>
@@ -1424,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF85D-2215-4895-A268-501C6E034D37}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,34 +1555,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -1482,37 +1590,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
       <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
         <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1520,31 +1628,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>8</v>
@@ -1555,31 +1663,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
         <v>8</v>
@@ -1590,31 +1698,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
@@ -1625,31 +1733,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
         <v>8</v>
@@ -1660,31 +1768,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
@@ -1695,31 +1803,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
         <v>8</v>
@@ -1730,31 +1838,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
         <v>8</v>
@@ -1765,31 +1873,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
@@ -1800,31 +1908,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
         <v>8</v>
@@ -1835,31 +1943,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
         <v>8</v>
@@ -1870,34 +1978,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1905,34 +2013,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1940,34 +2048,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1975,34 +2083,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2010,145 +2118,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K20">
-    <sortCondition ref="K3:K20"/>
-    <sortCondition ref="C3:C20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K17">
+    <sortCondition ref="K3:K17"/>
+    <sortCondition ref="C3:C17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RegulatoryOverlays/TableSummary.xlsx
+++ b/RegulatoryOverlays/TableSummary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\WaDE-Side-Projects\RegulatoryOverlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B79F6D9-7AA7-4B9E-B579-159092177A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7FABE5-249E-4EA3-A42A-9ADC47D9CE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="84">
   <si>
     <t>State</t>
   </si>
@@ -51,9 +51,6 @@
     <t>WaDE Mapping Status</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Regulatory</t>
   </si>
   <si>
@@ -114,12 +111,6 @@
     <t>Water Resource District</t>
   </si>
   <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Great Salt Lake Basin</t>
-  </si>
-  <si>
     <t>Alaska</t>
   </si>
   <si>
@@ -183,15 +174,9 @@
     <t>NM</t>
   </si>
   <si>
-    <t>Water Rights District</t>
-  </si>
-  <si>
     <t>Surface Water and Groundwater</t>
   </si>
   <si>
-    <t>Interstate River Compact</t>
-  </si>
-  <si>
     <t>NV</t>
   </si>
   <si>
@@ -264,9 +249,6 @@
     <t>Administrative Basins</t>
   </si>
   <si>
-    <t>Surface and Ground Water</t>
-  </si>
-  <si>
     <t>UT</t>
   </si>
   <si>
@@ -274,6 +256,39 @@
   </si>
   <si>
     <t>Active Management Areas</t>
+  </si>
+  <si>
+    <t>Special Condition Area</t>
+  </si>
+  <si>
+    <t>Soil Water Conservation District</t>
+  </si>
+  <si>
+    <t>Quality Restriction Area</t>
+  </si>
+  <si>
+    <t>Local Ordinance Area</t>
+  </si>
+  <si>
+    <t>Critical Management Area - Guidelines</t>
+  </si>
+  <si>
+    <t>Closure Area</t>
+  </si>
+  <si>
+    <t>Water Right Areas</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Groundwater Policy Management</t>
+  </si>
+  <si>
+    <t>Basins Closed to New Appropriations</t>
+  </si>
+  <si>
+    <t>Areas Open to Limited Appropriation</t>
   </si>
 </sst>
 </file>
@@ -625,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A01D4-43DC-4552-9F1C-140CADB500FF}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,72 +663,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -721,31 +736,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -756,31 +771,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -791,31 +806,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>505</v>
@@ -826,31 +841,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6">
         <v>13</v>
@@ -861,31 +876,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -896,31 +911,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K8">
         <v>13</v>
@@ -931,31 +946,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -966,31 +981,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1001,31 +1016,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1036,31 +1051,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1071,31 +1086,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K13">
         <v>63</v>
@@ -1106,31 +1121,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K14">
         <v>23</v>
@@ -1141,34 +1156,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1176,34 +1191,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
         <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1211,34 +1226,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1246,34 +1261,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1281,34 +1296,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1316,34 +1331,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1351,34 +1366,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21">
         <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1386,34 +1401,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1421,34 +1436,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>846</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1456,34 +1471,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1491,40 +1506,317 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K20">
-    <sortCondition ref="C3:C20"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1532,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF85D-2215-4895-A268-501C6E034D37}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1555,34 +1847,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -1590,37 +1882,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1628,530 +1920,425 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
         <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>34</v>
-      </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K17">
-    <sortCondition ref="K3:K17"/>
-    <sortCondition ref="C3:C17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K14">
+    <sortCondition ref="K3:K14"/>
+    <sortCondition ref="C3:C14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RegulatoryOverlays/TableSummary.xlsx
+++ b/RegulatoryOverlays/TableSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\WaDE-Side-Projects\RegulatoryOverlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7FABE5-249E-4EA3-A42A-9ADC47D9CE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB7C293-9783-4F3E-BF73-76D5FFDB3A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{81AFF9E1-8FEA-47D6-8AB0-2FAD415C8C39}"/>
   </bookViews>
   <sheets>
     <sheet name="InWaDE" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="78">
   <si>
     <t>State</t>
   </si>
@@ -87,36 +87,15 @@
     <t>Aquifer Recharge Districts</t>
   </si>
   <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>Closure Areas</t>
-  </si>
-  <si>
-    <t>Critical Management Areas</t>
-  </si>
-  <si>
-    <t>Local Ordiance Area</t>
-  </si>
-  <si>
     <t>Negative Easement Area</t>
   </si>
   <si>
-    <t>Quality Rescrition Area</t>
-  </si>
-  <si>
-    <t>Special Conditons</t>
-  </si>
-  <si>
     <t>Water Resource District</t>
   </si>
   <si>
     <t>Alaska</t>
   </si>
   <si>
-    <t>Alaska Soil and Water Conservation Districts</t>
-  </si>
-  <si>
     <t>Unavailable or identified incomplete</t>
   </si>
   <si>
@@ -289,15 +268,25 @@
   </si>
   <si>
     <t>Areas Open to Limited Appropriation</t>
+  </si>
+  <si>
+    <t>Idaho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -324,8 +313,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A01D4-43DC-4552-9F1C-140CADB500FF}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,72 +653,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -736,31 +726,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -771,31 +761,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>5</v>
@@ -806,31 +796,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>505</v>
@@ -841,31 +831,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>13</v>
@@ -876,31 +866,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -911,31 +901,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K8">
         <v>13</v>
@@ -946,31 +936,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -981,31 +971,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1016,31 +1006,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1051,31 +1041,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
         <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s">
         <v>6</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1086,31 +1076,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>63</v>
@@ -1121,31 +1111,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>23</v>
@@ -1156,31 +1146,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G15" t="s">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1191,31 +1181,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
         <v>9</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>47</v>
@@ -1226,31 +1216,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K17">
         <v>16</v>
@@ -1261,31 +1251,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K18">
         <v>87</v>
@@ -1296,31 +1286,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K19">
         <v>13</v>
@@ -1331,31 +1321,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K20">
         <v>15</v>
@@ -1366,31 +1356,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -1401,31 +1391,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K22">
         <v>123</v>
@@ -1436,31 +1426,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
         <v>9</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I23" t="s">
         <v>6</v>
       </c>
       <c r="J23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -1471,31 +1461,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
         <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I24" t="s">
         <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K24">
         <v>18</v>
@@ -1506,31 +1496,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
         <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s">
         <v>6</v>
       </c>
       <c r="J25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K25">
         <v>7</v>
@@ -1541,31 +1531,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I26" t="s">
         <v>13</v>
       </c>
       <c r="J26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K26">
         <v>100</v>
@@ -1576,31 +1566,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1611,31 +1601,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G28" t="s">
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
       </c>
       <c r="J28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -1646,31 +1636,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -1681,31 +1671,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I30" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -1716,31 +1706,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G31" t="s">
         <v>9</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I31" t="s">
         <v>6</v>
       </c>
       <c r="J31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K31">
         <v>846</v>
@@ -1751,31 +1741,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
       </c>
       <c r="J32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K32">
         <v>62</v>
@@ -1786,31 +1776,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K33">
         <v>34</v>
@@ -1824,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BDF85D-2215-4895-A268-501C6E034D37}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1847,34 +1837,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -1882,37 +1872,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1920,66 +1910,66 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
         <v>7</v>
@@ -1987,358 +1977,183 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
       <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K14">
-    <sortCondition ref="K3:K14"/>
-    <sortCondition ref="C3:C14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:K9">
+    <sortCondition ref="C3:C9"/>
+    <sortCondition ref="E3:E9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
